--- a/data/publications/orcid/export_to_manual/Wyższa_Szkoła_Bankowa_w_Toruniu_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Wyższa_Szkoła_Bankowa_w_Toruniu_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,364 +436,396 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Alina Matlakiewicz</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5627-384X</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Aroma Marketing in Business – How Fragrance Affects Customers and Employees</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Alina_Matlakiewicz_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Beata Rajba</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3945-1568</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>L’image de la femme et de l’homme dans Les lettres de Mistriss Fanny Butlerd de Marie Jeanne de Mezières Riccoboni</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019-10-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Roczniki Humanistyczne</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beata_Rajba_5</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilczyńska A., Singh R.B., Fedacko J., Singhal S. (2018). Validation Of Type A Behaviour Questionnaire In  Relation To Social Class And Coronary Artery. Disease: The Indian Rating Scale For Type A Behaviour. </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Journal of Cardiology and Therapy.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chudzicka Czupała, A, Grabowski, D., Wilczynska. A (2017) Mobbing and discrimination in companies. The importance of prevention. </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology p.  79-92.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin, D, Wilczynska A., Zimbardo Ph. (2017) Compassion and Heroism. </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>W: Zawodowe Czasopismo dla Psychologów i Psychoterapeutów. Psychologia w Praktyce. nr 5/2017. s. 70-72.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sword., R,  Wilczyńska A. (2017) O utracie, dramatycznej tęsknocie i wzajemnym wspieraniu się.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>W: Zawodowe Czasopismo dla Psychologów i Psychoterapeutów. Psychologia w Praktyce. nr 3/2017. s. 24-29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_4</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilczynska, A, (2017) Fatty acids and Cognitive and Emotional Functioning of Individuals.  </t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>in: Psychology in Practice. nr 4/2017. S. 68-72.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_5</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Wilczynska, A., Kwiatek, B. (2017). Ciało w stresie. Związek psychoterapii z fizjoterapią – czyli jak uwalniać ciało od napięć, relaksować się i wprowadzać w dobry nastrój.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychologia w Praktyce. nr 2/2017. S. 66-72.</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Agnieszka Wilczyńska</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3463-0882</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilson, D, Wilson K, Griffiths H,  Singh R.,  and De Meester F., and Wilczynska A.,Takahashi T., (2017) Therapy through social medicine: cultivating connections and inspiring solutions for healthy living. </t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>AIMS medical science., 4 (2). pp. 131-150.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Agnieszka_Wilczyńska_7</t>
         </is>
